--- a/musiques.xlsx
+++ b/musiques.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1308" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="3708" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>army of doom</t>
   </si>
@@ -308,6 +308,45 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=z4-6Shvg8js</t>
+  </si>
+  <si>
+    <t>regard en arrierre</t>
+  </si>
+  <si>
+    <t>Epilogue : beginning</t>
+  </si>
+  <si>
+    <t>Faded snapshots and forgotten dreams</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TYevEJ6y7Uo</t>
+  </si>
+  <si>
+    <t>regard en avant</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=08XIghnIjWs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Tzu8gBR0joY</t>
+  </si>
+  <si>
+    <t>final conclusion</t>
+  </si>
+  <si>
+    <t>One dark mare</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GfXAojf56wg</t>
+  </si>
+  <si>
+    <t>Sophia</t>
+  </si>
+  <si>
+    <t>posthumain</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cOSAl26hyBQ</t>
   </si>
 </sst>
 </file>
@@ -376,9 +415,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:J46" totalsRowShown="0">
-  <autoFilter ref="A1:J46"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:M50" totalsRowShown="0">
+  <autoFilter ref="A1:M50"/>
+  <tableColumns count="13">
     <tableColumn id="1" name="titre"/>
     <tableColumn id="7" name="Lien"/>
     <tableColumn id="2" name="dark"/>
@@ -389,6 +428,9 @@
     <tableColumn id="8" name="perturbant"/>
     <tableColumn id="9" name="aventure"/>
     <tableColumn id="10" name="mysterieux"/>
+    <tableColumn id="12" name="regard en arrierre"/>
+    <tableColumn id="13" name="regard en avant"/>
+    <tableColumn id="11" name="posthumain"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -681,23 +723,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
     <col min="5" max="5" width="13.21875" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" customWidth="1"/>
     <col min="8" max="8" width="11.5546875" customWidth="1"/>
     <col min="9" max="9" width="10.109375" customWidth="1"/>
     <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="18.77734375" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -728,8 +774,17 @@
       <c r="J1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -760,8 +815,14 @@
       <c r="J2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -793,7 +854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -825,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -857,7 +918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -889,7 +950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -921,7 +982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -953,7 +1014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -985,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1017,7 +1078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1049,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1081,7 +1142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1113,7 +1174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1145,7 +1206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1177,7 +1238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1209,7 +1270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1241,7 +1302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1273,7 +1334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1304,8 +1365,11 @@
       <c r="J19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1336,8 +1400,17 @@
       <c r="J20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1369,7 +1442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1401,7 +1474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1433,7 +1506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1465,7 +1538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1497,7 +1570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1528,8 +1601,14 @@
       <c r="J26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1561,7 +1640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1593,7 +1672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1625,7 +1704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1657,7 +1736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1689,7 +1768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1721,7 +1800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1753,7 +1832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1785,7 +1864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1817,7 +1896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1849,7 +1928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1881,7 +1960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1912,8 +1991,14 @@
       <c r="J38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38">
+        <v>4</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1945,7 +2030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1977,7 +2062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2009,7 +2094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2040,8 +2125,17 @@
       <c r="J42">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2073,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2105,7 +2199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2135,6 +2229,211 @@
       </c>
       <c r="J45">
         <v>4</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>3</v>
+      </c>
+      <c r="L46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>4</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>3</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>5</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>5</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>5</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>3</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2183,10 +2482,15 @@
     <hyperlink ref="B5" r:id="rId42"/>
     <hyperlink ref="B6" r:id="rId43"/>
     <hyperlink ref="B7" r:id="rId44"/>
+    <hyperlink ref="B46" r:id="rId45"/>
+    <hyperlink ref="B47" r:id="rId46"/>
+    <hyperlink ref="B48" r:id="rId47"/>
+    <hyperlink ref="B49" r:id="rId48"/>
+    <hyperlink ref="B50" r:id="rId49"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId45"/>
+    <tablePart r:id="rId50"/>
   </tableParts>
 </worksheet>
 </file>
--- a/musiques.xlsx
+++ b/musiques.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="3708" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="6708" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>army of doom</t>
   </si>
@@ -49,9 +49,6 @@
     <t>one for all</t>
   </si>
   <si>
-    <t>the warrior of darkness</t>
-  </si>
-  <si>
     <t>battery</t>
   </si>
   <si>
@@ -157,196 +154,211 @@
     <t>triste</t>
   </si>
   <si>
+    <t>rassurant</t>
+  </si>
+  <si>
+    <t>perturbant</t>
+  </si>
+  <si>
+    <t>aventure</t>
+  </si>
+  <si>
+    <t>mysterieux</t>
+  </si>
+  <si>
+    <t>Lien</t>
+  </si>
+  <si>
+    <t>titre</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ynljz14gMa8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JjKwKlD2E8I</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=naV46yL8YDw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZZD6weQ_MV8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CjRTx260FNQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bsvzP8EO65w</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tYy_v-pCWWE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zpiR4hlOat4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2h1OcA7juOQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0Ckdx6NFdjQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5t1uSleaSu8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9nnRK_Y2Ipo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pnqmdgUCPAQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7t3TS1JX2zY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rJIOWjNgXA0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qxtV0BTaU7w</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=G1KBZpvAgCY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mUDVX2I1_NQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8I4DsgPMyyo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AD3hDiOFuaQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=z6-qMuVHTtc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fOjLAA_dbK0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d4caYK5g548</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i3YlIMm4LWA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4VWNThB5b4k</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EEL-rcJKCHo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JoBcluqSH1w</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vtu8f2dKriY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cEeGuxN9Phg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mXHmaoYdwjg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=N2hTKe2yuJw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HWtkh2dPqjs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HyurLVbyhSY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=P0xAChndsv4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ridiZHihIjc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MdPaR3EXWls</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UlSKaHlWd_Q</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=POLz3bV3sU0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vA_lmsoTMWs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hzb9DsLguJo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=U6vNGHkMWgI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ep3trLT0Jh8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=z4-6Shvg8js</t>
+  </si>
+  <si>
+    <t>regard en arrierre</t>
+  </si>
+  <si>
+    <t>Epilogue : beginning</t>
+  </si>
+  <si>
+    <t>Faded snapshots and forgotten dreams</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TYevEJ6y7Uo</t>
+  </si>
+  <si>
+    <t>regard en avant</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=08XIghnIjWs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Tzu8gBR0joY</t>
+  </si>
+  <si>
+    <t>final conclusion</t>
+  </si>
+  <si>
+    <t>One dark mare</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GfXAojf56wg</t>
+  </si>
+  <si>
+    <t>Sophia</t>
+  </si>
+  <si>
+    <t>posthumain</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cOSAl26hyBQ</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>ambiance</t>
+  </si>
+  <si>
+    <t>emotion</t>
+  </si>
+  <si>
     <t>intense</t>
   </si>
   <si>
-    <t>rassurant</t>
-  </si>
-  <si>
-    <t>perturbant</t>
-  </si>
-  <si>
-    <t>aventure</t>
-  </si>
-  <si>
-    <t>mysterieux</t>
-  </si>
-  <si>
-    <t>Lien</t>
-  </si>
-  <si>
-    <t>titre</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ynljz14gMa8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JjKwKlD2E8I</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=naV46yL8YDw</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZZD6weQ_MV8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=CjRTx260FNQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bsvzP8EO65w</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tYy_v-pCWWE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=zpiR4hlOat4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=2h1OcA7juOQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ILWIclnf3_k</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0Ckdx6NFdjQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5t1uSleaSu8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9nnRK_Y2Ipo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=pnqmdgUCPAQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7t3TS1JX2zY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rJIOWjNgXA0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qxtV0BTaU7w</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=G1KBZpvAgCY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mUDVX2I1_NQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8I4DsgPMyyo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AD3hDiOFuaQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=z6-qMuVHTtc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fOjLAA_dbK0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=d4caYK5g548</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i3YlIMm4LWA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=4VWNThB5b4k</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EEL-rcJKCHo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JoBcluqSH1w</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vtu8f2dKriY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=cEeGuxN9Phg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mXHmaoYdwjg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=N2hTKe2yuJw</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HWtkh2dPqjs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HyurLVbyhSY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=P0xAChndsv4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ridiZHihIjc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MdPaR3EXWls</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=UlSKaHlWd_Q</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=POLz3bV3sU0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vA_lmsoTMWs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hzb9DsLguJo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=U6vNGHkMWgI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Ep3trLT0Jh8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=z4-6Shvg8js</t>
-  </si>
-  <si>
-    <t>regard en arrierre</t>
-  </si>
-  <si>
-    <t>Epilogue : beginning</t>
-  </si>
-  <si>
-    <t>Faded snapshots and forgotten dreams</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TYevEJ6y7Uo</t>
-  </si>
-  <si>
-    <t>regard en avant</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=08XIghnIjWs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Tzu8gBR0joY</t>
-  </si>
-  <si>
-    <t>final conclusion</t>
-  </si>
-  <si>
-    <t>One dark mare</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=GfXAojf56wg</t>
-  </si>
-  <si>
-    <t>Sophia</t>
-  </si>
-  <si>
-    <t>posthumain</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=cOSAl26hyBQ</t>
+    <t>révolte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -370,12 +382,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -391,15 +409,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="Style de tableau croisé dynamique 1" table="0" count="0"/>
   </tableStyles>
@@ -415,24 +451,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:M50" totalsRowShown="0">
-  <autoFilter ref="A1:M50"/>
-  <tableColumns count="13">
-    <tableColumn id="1" name="titre"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:S49">
+  <autoFilter ref="A1:S49"/>
+  <tableColumns count="19">
+    <tableColumn id="1" name="titre" totalsRowLabel="Total"/>
     <tableColumn id="7" name="Lien"/>
     <tableColumn id="2" name="dark"/>
     <tableColumn id="3" name="triste"/>
     <tableColumn id="4" name="protagoniste"/>
-    <tableColumn id="5" name="intense"/>
     <tableColumn id="6" name="rassurant"/>
     <tableColumn id="8" name="perturbant"/>
     <tableColumn id="9" name="aventure"/>
     <tableColumn id="10" name="mysterieux"/>
     <tableColumn id="12" name="regard en arrierre"/>
     <tableColumn id="13" name="regard en avant"/>
-    <tableColumn id="11" name="posthumain"/>
+    <tableColumn id="14" name="intense"/>
+    <tableColumn id="18" name=" " dataDxfId="0"/>
+    <tableColumn id="15" name="ambiance"/>
+    <tableColumn id="16" name="emotion"/>
+    <tableColumn id="5" name="action"/>
+    <tableColumn id="19" name="  " dataDxfId="1"/>
+    <tableColumn id="17" name="révolte"/>
+    <tableColumn id="20" name="posthumain" totalsRowFunction="sum"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -723,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -734,133 +776,189 @@
     <col min="1" max="1" width="34.33203125" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="5" max="5" width="13.21875" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1"/>
-    <col min="11" max="11" width="18.77734375" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="13" max="13" width="2.33203125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="2.44140625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="R1" t="s">
+        <v>112</v>
+      </c>
+      <c r="S1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>5</v>
+      </c>
+      <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <v>5</v>
+      </c>
+      <c r="S2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="R3">
+        <v>5</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="C4">
         <v>4</v>
       </c>
@@ -871,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -885,13 +983,34 @@
       <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -903,27 +1022,48 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -935,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -944,18 +1084,39 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -970,24 +1131,45 @@
         <v>3</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1002,24 +1184,45 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -1031,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1045,13 +1248,34 @@
       <c r="J9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
+      </c>
+      <c r="S9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1063,27 +1287,48 @@
         <v>5</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>4</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1095,27 +1340,45 @@
         <v>5</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>4</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1127,27 +1390,45 @@
         <v>5</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1156,30 +1437,48 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>2</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>5</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1188,42 +1487,63 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="N14">
+        <v>5</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14">
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -1232,30 +1552,30 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1267,18 +1587,36 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="P16">
+        <v>3</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17">
         <v>5</v>
@@ -1287,182 +1625,239 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>4</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="N18">
+        <v>5</v>
+      </c>
+      <c r="O18">
+        <v>4</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5</v>
-      </c>
-      <c r="M19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>4</v>
+      </c>
+      <c r="S19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>4</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>4</v>
       </c>
       <c r="I20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L20">
-        <v>3</v>
-      </c>
-      <c r="M20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>4</v>
+      </c>
+      <c r="O20">
+        <v>4</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>5</v>
+      </c>
+      <c r="O21">
+        <v>2</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1473,57 +1868,96 @@
       <c r="J22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="O22">
+        <v>5</v>
+      </c>
+      <c r="P22">
+        <v>2</v>
+      </c>
+      <c r="R22">
+        <v>3</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23">
+        <v>5</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1532,132 +1966,150 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>4</v>
+      </c>
+      <c r="N24">
+        <v>4</v>
+      </c>
+      <c r="O24">
+        <v>2</v>
+      </c>
+      <c r="P24">
+        <v>4</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I26">
-        <v>2</v>
-      </c>
-      <c r="J26">
-        <v>2</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>4</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1666,158 +2118,194 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>3</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>3</v>
+      </c>
+      <c r="O29">
+        <v>5</v>
+      </c>
+      <c r="P29">
+        <v>2</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K30">
+        <v>5</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <v>5</v>
+      </c>
+      <c r="O30">
+        <v>4</v>
+      </c>
+      <c r="P30">
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>3</v>
       </c>
       <c r="G31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I31">
-        <v>4</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32">
         <v>3</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>4</v>
-      </c>
-      <c r="J32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1826,18 +2314,36 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="N33">
+        <v>5</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>5</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1846,80 +2352,119 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>2</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>5</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>2</v>
+      </c>
+      <c r="P34">
+        <v>5</v>
+      </c>
+      <c r="S34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="N35">
+        <v>3</v>
+      </c>
+      <c r="O35">
+        <v>4</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>3</v>
+      </c>
+      <c r="S35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -1927,92 +2472,143 @@
       <c r="J36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>4</v>
+      </c>
+      <c r="N36">
+        <v>4</v>
+      </c>
+      <c r="O36">
+        <v>3</v>
+      </c>
+      <c r="P36">
+        <v>5</v>
+      </c>
+      <c r="R36">
+        <v>5</v>
+      </c>
+      <c r="S36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F37">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>5</v>
+      </c>
+      <c r="O37">
+        <v>4</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="N38">
+        <v>3</v>
+      </c>
+      <c r="O38">
+        <v>4</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F39">
         <v>2</v>
@@ -2021,33 +2617,33 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
-      <c r="J39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -2056,164 +2652,173 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="L40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C41">
         <v>5</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>3</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C42">
         <v>5</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
-      <c r="J42">
-        <v>4</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
       <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="L43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>4</v>
+      </c>
+      <c r="S44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F45">
         <v>4</v>
@@ -2222,150 +2827,159 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46">
+        <v>4</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46">
+        <v>5</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="E46">
-        <v>3</v>
-      </c>
-      <c r="F46">
-        <v>2</v>
-      </c>
-      <c r="G46">
-        <v>4</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>2</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>3</v>
-      </c>
-      <c r="L46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>99</v>
-      </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>3</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>103</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
-      <c r="E47">
-        <v>2</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>3</v>
-      </c>
-      <c r="H47">
-        <v>3</v>
-      </c>
-      <c r="I47">
-        <v>2</v>
-      </c>
-      <c r="J47">
-        <v>4</v>
-      </c>
-      <c r="K47">
-        <v>2</v>
-      </c>
-      <c r="L47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>100</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="N48">
+        <v>4</v>
+      </c>
+      <c r="O48">
+        <v>3</v>
+      </c>
+      <c r="P48">
+        <v>5</v>
+      </c>
+      <c r="S48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2377,62 +2991,30 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>108</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>5</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>3</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-      <c r="L50">
-        <v>3</v>
-      </c>
-      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>5</v>
+      </c>
+      <c r="O49">
+        <v>4</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="S49">
         <v>0</v>
       </c>
     </row>
@@ -2478,17 +3060,17 @@
     <hyperlink ref="B42" r:id="rId38"/>
     <hyperlink ref="B43" r:id="rId39"/>
     <hyperlink ref="B44" r:id="rId40"/>
-    <hyperlink ref="B45" r:id="rId41"/>
-    <hyperlink ref="B5" r:id="rId42"/>
-    <hyperlink ref="B6" r:id="rId43"/>
-    <hyperlink ref="B7" r:id="rId44"/>
+    <hyperlink ref="B5" r:id="rId41"/>
+    <hyperlink ref="B6" r:id="rId42"/>
+    <hyperlink ref="B7" r:id="rId43"/>
+    <hyperlink ref="B45" r:id="rId44"/>
     <hyperlink ref="B46" r:id="rId45"/>
     <hyperlink ref="B47" r:id="rId46"/>
     <hyperlink ref="B48" r:id="rId47"/>
     <hyperlink ref="B49" r:id="rId48"/>
-    <hyperlink ref="B50" r:id="rId49"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId49"/>
   <tableParts count="1">
     <tablePart r:id="rId50"/>
   </tableParts>

--- a/musiques.xlsx
+++ b/musiques.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="6708" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="9108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>army of doom</t>
   </si>
@@ -301,9 +301,6 @@
     <t>https://www.youtube.com/watch?v=z4-6Shvg8js</t>
   </si>
   <si>
-    <t>regard en arrierre</t>
-  </si>
-  <si>
     <t>Epilogue : beginning</t>
   </si>
   <si>
@@ -313,9 +310,6 @@
     <t>https://www.youtube.com/watch?v=TYevEJ6y7Uo</t>
   </si>
   <si>
-    <t>regard en avant</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=08XIghnIjWs</t>
   </si>
   <si>
@@ -359,6 +353,39 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>la crise</t>
+  </si>
+  <si>
+    <t>en arrierre</t>
+  </si>
+  <si>
+    <t>en avant</t>
+  </si>
+  <si>
+    <t>quantum slash</t>
+  </si>
+  <si>
+    <t>Alice madness returns</t>
+  </si>
+  <si>
+    <t>simplicity</t>
+  </si>
+  <si>
+    <t>regrets</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=do26kpR3hT0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=j_dS5qIAsC0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qPL5gh8OxCw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3kWR2HmNakQ</t>
   </si>
 </sst>
 </file>
@@ -409,16 +436,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -451,9 +483,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:S49">
-  <autoFilter ref="A1:S49"/>
-  <tableColumns count="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:T53" headerRowDxfId="0">
+  <autoFilter ref="A1:T53"/>
+  <tableColumns count="20">
     <tableColumn id="1" name="titre" totalsRowLabel="Total"/>
     <tableColumn id="7" name="Lien"/>
     <tableColumn id="2" name="dark"/>
@@ -463,16 +495,17 @@
     <tableColumn id="8" name="perturbant"/>
     <tableColumn id="9" name="aventure"/>
     <tableColumn id="10" name="mysterieux"/>
-    <tableColumn id="12" name="regard en arrierre"/>
-    <tableColumn id="13" name="regard en avant"/>
+    <tableColumn id="12" name="en arrierre"/>
+    <tableColumn id="13" name="en avant"/>
     <tableColumn id="14" name="intense"/>
-    <tableColumn id="18" name=" " dataDxfId="0"/>
+    <tableColumn id="18" name=" " dataDxfId="2"/>
     <tableColumn id="15" name="ambiance"/>
     <tableColumn id="16" name="emotion"/>
     <tableColumn id="5" name="action"/>
     <tableColumn id="19" name="  " dataDxfId="1"/>
     <tableColumn id="17" name="révolte"/>
     <tableColumn id="20" name="posthumain" totalsRowFunction="sum"/>
+    <tableColumn id="11" name="la crise"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -765,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD43"/>
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -780,73 +813,76 @@
     <col min="7" max="7" width="11.5546875" customWidth="1"/>
     <col min="8" max="8" width="10.109375" customWidth="1"/>
     <col min="9" max="9" width="11.5546875" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
     <col min="13" max="13" width="2.33203125" style="2" customWidth="1"/>
     <col min="17" max="17" width="2.44140625" style="2" customWidth="1"/>
     <col min="19" max="19" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="J1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="N1" t="s">
-        <v>109</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="R1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="P1" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="R1" t="s">
-        <v>112</v>
-      </c>
-      <c r="S1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -899,7 +935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -952,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1004,8 +1040,11 @@
       <c r="S4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1057,8 +1096,11 @@
       <c r="S5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1111,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1163,8 +1205,11 @@
       <c r="S7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1217,7 +1262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1270,7 +1315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1322,8 +1367,11 @@
       <c r="S10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1373,7 +1421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1423,7 +1471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1473,7 +1521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1525,8 +1573,11 @@
       <c r="S14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1558,7 +1609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1608,7 +1659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1640,7 +1691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1690,7 +1741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1731,7 +1782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1784,7 +1835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1837,7 +1888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1890,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1940,7 +1991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1990,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2028,7 +2079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2060,7 +2111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2088,11 +2139,35 @@
       <c r="I27">
         <v>0</v>
       </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
       <c r="L27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N27">
+        <v>2</v>
+      </c>
+      <c r="O27">
+        <v>5</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>2</v>
+      </c>
+      <c r="T27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2120,11 +2195,35 @@
       <c r="I28">
         <v>2</v>
       </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
       <c r="L28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N28">
+        <v>2</v>
+      </c>
+      <c r="O28">
+        <v>5</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2174,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2224,7 +2323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2256,7 +2355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2284,11 +2383,35 @@
       <c r="I32">
         <v>3</v>
       </c>
+      <c r="J32">
+        <v>5</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
       <c r="L32">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N32">
+        <v>5</v>
+      </c>
+      <c r="O32">
+        <v>5</v>
+      </c>
+      <c r="P32">
+        <v>2</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2338,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2388,7 +2511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2441,7 +2564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2494,7 +2617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2544,7 +2667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2594,7 +2717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2622,11 +2745,32 @@
       <c r="I39">
         <v>0</v>
       </c>
+      <c r="J39">
+        <v>5</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
       <c r="L39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N39">
+        <v>3</v>
+      </c>
+      <c r="O39">
+        <v>5</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2658,7 +2802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2699,7 +2843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2731,7 +2875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2759,11 +2903,35 @@
       <c r="I43">
         <v>3</v>
       </c>
+      <c r="J43">
+        <v>5</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
       <c r="L43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N43">
+        <v>5</v>
+      </c>
+      <c r="O43">
+        <v>4</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2800,181 +2968,238 @@
       <c r="L44">
         <v>4</v>
       </c>
+      <c r="N44">
+        <v>5</v>
+      </c>
+      <c r="O44">
+        <v>4</v>
+      </c>
+      <c r="P44">
+        <v>4</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
       <c r="S44">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+      <c r="K45">
+        <v>3</v>
+      </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>5</v>
+      </c>
+      <c r="P45">
+        <v>2</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46">
+        <v>4</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46">
+        <v>5</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>4</v>
+      </c>
+      <c r="O46">
+        <v>4</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>3</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45">
-        <v>3</v>
-      </c>
-      <c r="F45">
-        <v>4</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>2</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>3</v>
-      </c>
-      <c r="K45">
-        <v>3</v>
-      </c>
-      <c r="L45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>96</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="E46">
-        <v>2</v>
-      </c>
-      <c r="F46">
-        <v>3</v>
-      </c>
-      <c r="G46">
-        <v>3</v>
-      </c>
-      <c r="H46">
-        <v>2</v>
-      </c>
-      <c r="I46">
-        <v>4</v>
-      </c>
-      <c r="J46">
-        <v>2</v>
-      </c>
-      <c r="K46">
-        <v>5</v>
-      </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47">
-        <v>2</v>
-      </c>
-      <c r="D47">
-        <v>4</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>3</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>5</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>5</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>5</v>
+      </c>
+      <c r="N48">
+        <v>4</v>
+      </c>
+      <c r="O48">
+        <v>3</v>
+      </c>
+      <c r="P48">
+        <v>5</v>
+      </c>
+      <c r="R48">
+        <v>2</v>
+      </c>
+      <c r="S48">
+        <v>5</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C48">
-        <v>5</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>5</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>5</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>5</v>
-      </c>
-      <c r="N48">
-        <v>4</v>
-      </c>
-      <c r="O48">
-        <v>3</v>
-      </c>
-      <c r="P48">
-        <v>5</v>
-      </c>
-      <c r="S48">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="B49" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="C49">
         <v>0</v>
       </c>
@@ -3016,6 +3241,230 @@
       </c>
       <c r="S49">
         <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="N50">
+        <v>5</v>
+      </c>
+      <c r="O50">
+        <v>4</v>
+      </c>
+      <c r="P50">
+        <v>3</v>
+      </c>
+      <c r="R50">
+        <v>3</v>
+      </c>
+      <c r="S50">
+        <v>3</v>
+      </c>
+      <c r="T50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>5</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>5</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="N51">
+        <v>5</v>
+      </c>
+      <c r="O51">
+        <v>3</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>2</v>
+      </c>
+      <c r="S51">
+        <v>5</v>
+      </c>
+      <c r="T51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>5</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>3</v>
+      </c>
+      <c r="K52">
+        <v>3</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>5</v>
+      </c>
+      <c r="O52">
+        <v>4</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>5</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>4</v>
+      </c>
+      <c r="O53">
+        <v>5</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>5</v>
+      </c>
+      <c r="S53">
+        <v>3</v>
+      </c>
+      <c r="T53">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3068,11 +3517,15 @@
     <hyperlink ref="B47" r:id="rId46"/>
     <hyperlink ref="B48" r:id="rId47"/>
     <hyperlink ref="B49" r:id="rId48"/>
+    <hyperlink ref="B50" r:id="rId49"/>
+    <hyperlink ref="B51" r:id="rId50"/>
+    <hyperlink ref="B52" r:id="rId51"/>
+    <hyperlink ref="B53" r:id="rId52"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId49"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId53"/>
   <tableParts count="1">
-    <tablePart r:id="rId50"/>
+    <tablePart r:id="rId54"/>
   </tableParts>
 </worksheet>
 </file>
--- a/musiques.xlsx
+++ b/musiques.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="9108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="9708" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -449,9 +449,6 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -466,6 +463,9 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
@@ -483,7 +483,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:T53" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:T53" headerRowDxfId="2">
   <autoFilter ref="A1:T53"/>
   <tableColumns count="20">
     <tableColumn id="1" name="titre" totalsRowLabel="Total"/>
@@ -498,11 +498,11 @@
     <tableColumn id="12" name="en arrierre"/>
     <tableColumn id="13" name="en avant"/>
     <tableColumn id="14" name="intense"/>
-    <tableColumn id="18" name=" " dataDxfId="2"/>
+    <tableColumn id="18" name=" " dataDxfId="1"/>
     <tableColumn id="15" name="ambiance"/>
     <tableColumn id="16" name="emotion"/>
     <tableColumn id="5" name="action"/>
-    <tableColumn id="19" name="  " dataDxfId="1"/>
+    <tableColumn id="19" name="  " dataDxfId="0"/>
     <tableColumn id="17" name="révolte"/>
     <tableColumn id="20" name="posthumain" totalsRowFunction="sum"/>
     <tableColumn id="11" name="la crise"/>
@@ -800,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1417,7 +1417,13 @@
       <c r="P11">
         <v>0</v>
       </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
       <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
         <v>0</v>
       </c>
     </row>
@@ -1887,6 +1893,9 @@
       <c r="S21">
         <v>0</v>
       </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -1987,8 +1996,14 @@
       <c r="P23">
         <v>0</v>
       </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
       <c r="S23">
         <v>2</v>
+      </c>
+      <c r="T23">
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
@@ -2107,8 +2122,32 @@
       <c r="I26">
         <v>0</v>
       </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
       <c r="L26">
         <v>2</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26">
+        <v>5</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">

--- a/musiques.xlsx
+++ b/musiques.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="25308" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="25908" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
   <si>
     <t>army of doom</t>
   </si>
@@ -639,6 +639,30 @@
   <si>
     <t>célébration</t>
   </si>
+  <si>
+    <t>Here be dragons</t>
+  </si>
+  <si>
+    <t>uprising</t>
+  </si>
+  <si>
+    <t>Sow myself, Harvest hope</t>
+  </si>
+  <si>
+    <t>After the fall</t>
+  </si>
+  <si>
+    <t>The beginning of the end</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=c9b399P-2WY</t>
+  </si>
+  <si>
+    <t>création</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-uAZl4V0ziI</t>
+  </si>
 </sst>
 </file>
 
@@ -739,8 +763,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:S80" headerRowDxfId="2">
-  <autoFilter ref="A1:S80"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:S85" headerRowDxfId="2">
+  <autoFilter ref="A1:S85"/>
   <tableColumns count="19">
     <tableColumn id="1" name="titre" totalsRowLabel="Total"/>
     <tableColumn id="7" name="Lien"/>
@@ -1055,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S10624"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5300,52 +5324,164 @@
         <v>207</v>
       </c>
     </row>
-    <row r="81" spans="19:19" x14ac:dyDescent="0.3">
-      <c r="S81"/>
-    </row>
-    <row r="82" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>208</v>
+      </c>
+      <c r="B81" t="s">
+        <v>213</v>
+      </c>
+      <c r="C81">
+        <v>5</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81">
+        <v>5</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>2</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>3</v>
+      </c>
+      <c r="J81">
+        <v>3</v>
+      </c>
+      <c r="K81" s="2"/>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>3</v>
+      </c>
+      <c r="N81">
+        <v>5</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>209</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C82">
+        <v>-4</v>
+      </c>
+      <c r="D82">
+        <v>-3</v>
+      </c>
+      <c r="E82">
+        <v>-4</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>-2</v>
+      </c>
+      <c r="H82">
+        <v>2</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82" s="2"/>
+      <c r="L82">
+        <v>4</v>
+      </c>
+      <c r="M82">
+        <v>5</v>
+      </c>
+      <c r="N82">
+        <v>2</v>
+      </c>
+      <c r="P82">
+        <v>5</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>5</v>
+      </c>
       <c r="S82"/>
     </row>
-    <row r="83" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>210</v>
+      </c>
+      <c r="K83" s="2"/>
       <c r="S83"/>
     </row>
-    <row r="84" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>211</v>
+      </c>
+      <c r="K84" s="2"/>
       <c r="S84"/>
     </row>
-    <row r="85" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>212</v>
+      </c>
+      <c r="K85" s="2"/>
       <c r="S85"/>
     </row>
-    <row r="86" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S86"/>
     </row>
-    <row r="87" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S87"/>
     </row>
-    <row r="88" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S88"/>
     </row>
-    <row r="89" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S89"/>
     </row>
-    <row r="90" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S90"/>
     </row>
-    <row r="91" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S91"/>
     </row>
-    <row r="92" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S92"/>
     </row>
-    <row r="93" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S93"/>
     </row>
-    <row r="94" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S94"/>
     </row>
-    <row r="95" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S95"/>
     </row>
-    <row r="96" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S96"/>
     </row>
     <row r="97" spans="19:19" x14ac:dyDescent="0.3">
@@ -36978,11 +37114,12 @@
     <hyperlink ref="B44" r:id="rId42"/>
     <hyperlink ref="B45" r:id="rId43"/>
     <hyperlink ref="B61" r:id="rId44"/>
+    <hyperlink ref="B82" r:id="rId45"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId45"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId46"/>
   <tableParts count="1">
-    <tablePart r:id="rId46"/>
+    <tablePart r:id="rId47"/>
   </tableParts>
 </worksheet>
 </file>
--- a/musiques.xlsx
+++ b/musiques.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="31908" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="33708" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
   <si>
     <t>army of doom</t>
   </si>
@@ -789,6 +789,33 @@
   <si>
     <t>charge constante, tentation d'abandon</t>
   </si>
+  <si>
+    <t>white abbys</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xhI_NnzBJ2w</t>
+  </si>
+  <si>
+    <t>conflic/préparation au conflict intense</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=z_jXYL-hIuk</t>
+  </si>
+  <si>
+    <t>Blood hunter</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bZSeDHIOISE</t>
+  </si>
+  <si>
+    <t>In the ruins of glory</t>
+  </si>
+  <si>
+    <t>quelque chose ne va pas dans le monde</t>
+  </si>
+  <si>
+    <t>grande force naturelle, incontrolable</t>
+  </si>
 </sst>
 </file>
 
@@ -903,8 +930,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:V97" headerRowDxfId="2">
-  <autoFilter ref="A1:V97"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:V100" headerRowDxfId="2">
+  <autoFilter ref="A1:V100"/>
   <tableColumns count="22">
     <tableColumn id="1" name="titre" totalsRowLabel="Total"/>
     <tableColumn id="6" name="position"/>
@@ -1222,8 +1249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V10620"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1239,7 +1266,7 @@
     <col min="22" max="22" width="43.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="3" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="3" customFormat="1" ht="90.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
@@ -1787,7 +1814,7 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="6">
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1833,10 +1860,18 @@
       <c r="R10">
         <v>0</v>
       </c>
+      <c r="S10">
+        <v>2</v>
+      </c>
       <c r="T10">
         <v>0</v>
       </c>
-      <c r="V10"/>
+      <c r="U10">
+        <v>3</v>
+      </c>
+      <c r="V10" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -2192,7 +2227,7 @@
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="6">
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -3336,7 +3371,7 @@
       <c r="A38" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="6">
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -3382,7 +3417,18 @@
       <c r="R38">
         <v>0</v>
       </c>
-      <c r="V38"/>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
@@ -4744,6 +4790,15 @@
       <c r="R63">
         <v>0</v>
       </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>3</v>
+      </c>
+      <c r="U63">
+        <v>3</v>
+      </c>
       <c r="V63"/>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.3">
@@ -6712,12 +6767,188 @@
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="V98"/>
+      <c r="A98" t="s">
+        <v>258</v>
+      </c>
+      <c r="B98" s="5">
+        <v>97</v>
+      </c>
+      <c r="C98" t="s">
+        <v>259</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>-2</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>5</v>
+      </c>
+      <c r="L98" s="2"/>
+      <c r="M98">
+        <v>3</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>5</v>
+      </c>
+      <c r="Q98">
+        <v>4</v>
+      </c>
+      <c r="R98">
+        <v>3</v>
+      </c>
+      <c r="S98">
+        <v>3</v>
+      </c>
+      <c r="T98">
+        <v>4</v>
+      </c>
+      <c r="U98">
+        <v>3</v>
+      </c>
+      <c r="V98" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>262</v>
+      </c>
+      <c r="B99" s="5">
+        <v>98</v>
+      </c>
+      <c r="C99" t="s">
+        <v>261</v>
+      </c>
+      <c r="D99">
+        <v>-4</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>-3</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>4</v>
+      </c>
+      <c r="L99" s="2"/>
+      <c r="M99">
+        <v>4</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+      <c r="O99">
+        <v>5</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>4</v>
+      </c>
+      <c r="S99">
+        <v>5</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <v>0</v>
+      </c>
       <c r="V99"/>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>264</v>
+      </c>
+      <c r="B100" s="6">
+        <v>99</v>
+      </c>
+      <c r="C100" t="s">
+        <v>263</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+      <c r="G100">
+        <v>-3</v>
+      </c>
+      <c r="H100">
+        <v>2</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>2</v>
+      </c>
+      <c r="L100" s="2"/>
+      <c r="M100">
+        <v>5</v>
+      </c>
+      <c r="N100">
+        <v>2</v>
+      </c>
+      <c r="O100">
+        <v>3</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <v>0</v>
+      </c>
+      <c r="S100">
+        <v>0</v>
+      </c>
+      <c r="T100">
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <v>5</v>
+      </c>
       <c r="V100"/>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.3">

--- a/musiques.xlsx
+++ b/musiques.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="33708" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="39708" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="276">
   <si>
     <t>army of doom</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>a twist of fate</t>
-  </si>
-  <si>
-    <t>battlefield earth</t>
   </si>
   <si>
     <t>the last thread of life</t>
@@ -52,9 +49,6 @@
     <t>strength of a thousand men</t>
   </si>
   <si>
-    <t>sendaria burning</t>
-  </si>
-  <si>
     <t>final days of rome</t>
   </si>
   <si>
@@ -67,9 +61,6 @@
     <t>dark reg, nightmare fuel</t>
   </si>
   <si>
-    <t>terra nova</t>
-  </si>
-  <si>
     <t>calm and peace</t>
   </si>
   <si>
@@ -79,16 +70,10 @@
     <t>war wounds</t>
   </si>
   <si>
-    <t>march of the horde</t>
-  </si>
-  <si>
     <t>climb together</t>
   </si>
   <si>
     <t>the old world</t>
-  </si>
-  <si>
-    <t>titan</t>
   </si>
   <si>
     <t>from pain we rise</t>
@@ -104,9 +89,6 @@
   </si>
   <si>
     <t>shape of lies</t>
-  </si>
-  <si>
-    <t>dit not die in vail</t>
   </si>
   <si>
     <t>undead rising</t>
@@ -169,9 +151,6 @@
     <t>https://www.youtube.com/watch?v=5t1uSleaSu8</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=9nnRK_Y2Ipo</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=pnqmdgUCPAQ</t>
   </si>
   <si>
@@ -184,9 +163,6 @@
     <t>https://www.youtube.com/watch?v=qxtV0BTaU7w</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=G1KBZpvAgCY</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=mUDVX2I1_NQ</t>
   </si>
   <si>
@@ -196,16 +172,10 @@
     <t>https://www.youtube.com/watch?v=AD3hDiOFuaQ</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=z6-qMuVHTtc</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=fOjLAA_dbK0</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=d4caYK5g548</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vtu8f2dKriY</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=cEeGuxN9Phg</t>
@@ -223,9 +193,6 @@
     <t>https://www.youtube.com/watch?v=ridiZHihIjc</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=MdPaR3EXWls</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=UlSKaHlWd_Q</t>
   </si>
   <si>
@@ -239,9 +206,6 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=U6vNGHkMWgI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Ep3trLT0Jh8</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=z4-6Shvg8js</t>
@@ -479,9 +443,6 @@
   </si>
   <si>
     <t>chill hobbit</t>
-  </si>
-  <si>
-    <t>mort d'un perso</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=uKz-ow9UqmU</t>
@@ -730,9 +691,6 @@
     <t>The freak inside - Lacrimosa</t>
   </si>
   <si>
-    <t>Lilith</t>
-  </si>
-  <si>
     <t>Synthetised angel</t>
   </si>
   <si>
@@ -746,9 +704,6 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=urzKkxY7PM4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rK-19lEHO60</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=maXsM_NFTFo</t>
@@ -799,12 +754,6 @@
     <t>conflic/préparation au conflict intense</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=z_jXYL-hIuk</t>
-  </si>
-  <si>
-    <t>Blood hunter</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=bZSeDHIOISE</t>
   </si>
   <si>
@@ -815,6 +764,84 @@
   </si>
   <si>
     <t>grande force naturelle, incontrolable</t>
+  </si>
+  <si>
+    <t>The wiches</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k03nTEyn--k</t>
+  </si>
+  <si>
+    <t>menace/c'est la merde</t>
+  </si>
+  <si>
+    <t>Desperado</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WQW8BmIQA1c</t>
+  </si>
+  <si>
+    <t>action cyberpunk</t>
+  </si>
+  <si>
+    <t>Crise brutale</t>
+  </si>
+  <si>
+    <t>histoire racontée après la chute</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fuu-WvDxJ0E</t>
+  </si>
+  <si>
+    <t>Hunt or be hunted</t>
+  </si>
+  <si>
+    <t>Cyborg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rEr7-0fOMs0</t>
+  </si>
+  <si>
+    <t>Unfeched lands</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=men0WDJDaRA</t>
+  </si>
+  <si>
+    <t>The prophecy</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dx6tXLq27hQ</t>
+  </si>
+  <si>
+    <t>musique hétérogène</t>
+  </si>
+  <si>
+    <t>Lumina</t>
+  </si>
+  <si>
+    <t>https://youtu.be/wcBosWg1UfA</t>
+  </si>
+  <si>
+    <t>I Can Go Further/I've Come This Far</t>
+  </si>
+  <si>
+    <t>https://youtu.be/qn1lmb4_thw</t>
+  </si>
+  <si>
+    <t>prophécie/nature</t>
+  </si>
+  <si>
+    <t>Espoir</t>
+  </si>
+  <si>
+    <t>The Hidden Valley</t>
+  </si>
+  <si>
+    <t>https://youtu.be/WkPolNmP-30</t>
+  </si>
+  <si>
+    <t>Paix</t>
   </si>
 </sst>
 </file>
@@ -930,8 +957,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:V100" headerRowDxfId="2">
-  <autoFilter ref="A1:V100"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:V101" headerRowDxfId="2">
+  <autoFilter ref="A1:V101"/>
   <tableColumns count="22">
     <tableColumn id="1" name="titre" totalsRowLabel="Total"/>
     <tableColumn id="6" name="position"/>
@@ -1247,10 +1274,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V10620"/>
+  <dimension ref="A1:V10610"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V102" sqref="V102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1268,70 +1295,70 @@
   <sheetData>
     <row r="1" spans="1:22" s="3" customFormat="1" ht="90.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -1342,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D2">
         <v>-5</v>
@@ -1394,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -1405,7 +1432,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D3">
         <v>-5</v>
@@ -1457,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -1468,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D4">
         <v>-4</v>
@@ -1520,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -1531,7 +1558,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D5">
         <v>-5</v>
@@ -1588,60 +1615,51 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D6">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="E6">
         <v>-4</v>
       </c>
       <c r="F6">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>-3</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N6">
         <v>5</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>3</v>
-      </c>
-      <c r="U6">
-        <v>4</v>
       </c>
       <c r="V6"/>
     </row>
@@ -1653,47 +1671,56 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="D7">
         <v>-1</v>
       </c>
       <c r="E7">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
         <v>1</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
         <v>2</v>
       </c>
-      <c r="N7">
-        <v>5</v>
-      </c>
       <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>2</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <v>3</v>
+      </c>
+      <c r="U7">
+        <v>4</v>
       </c>
       <c r="V7"/>
     </row>
@@ -1705,56 +1732,47 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D8">
+        <v>-5</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>-4</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>-1</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8">
         <v>5</v>
       </c>
       <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
         <v>2</v>
       </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
       <c r="Q8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R8">
-        <v>2</v>
-      </c>
-      <c r="S8">
-        <v>3</v>
-      </c>
-      <c r="T8">
-        <v>3</v>
-      </c>
-      <c r="U8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V8"/>
     </row>
@@ -1762,53 +1780,64 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D9">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F9">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9">
         <v>5</v>
       </c>
       <c r="N9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
         <v>2</v>
       </c>
-      <c r="Q9">
-        <v>5</v>
-      </c>
-      <c r="R9">
-        <v>5</v>
-      </c>
-      <c r="V9"/>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1818,28 +1847,28 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
         <v>4</v>
-      </c>
-      <c r="E10">
-        <v>-2</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
       </c>
       <c r="G10">
         <v>5</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1852,7 +1881,7 @@
         <v>4</v>
       </c>
       <c r="O10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1861,27 +1890,25 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>3</v>
-      </c>
-      <c r="V10" t="s">
-        <v>265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V10"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="B11" s="6">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -1890,10 +1917,10 @@
         <v>3</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -1905,17 +1932,17 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1936,47 +1963,47 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="B12" s="6">
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K12">
         <v>3</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1993,7 +2020,9 @@
       <c r="U12">
         <v>0</v>
       </c>
-      <c r="V12"/>
+      <c r="V12" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -2003,41 +2032,41 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13">
         <v>5</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -2054,9 +2083,7 @@
       <c r="U13">
         <v>0</v>
       </c>
-      <c r="V13" t="s">
-        <v>132</v>
-      </c>
+      <c r="V13"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -2066,22 +2093,22 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -2090,84 +2117,95 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14">
         <v>5</v>
       </c>
-      <c r="N14">
+      <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
         <v>4</v>
       </c>
-      <c r="O14">
-        <v>2</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14"/>
+      <c r="V14" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="6">
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D15">
+        <v>-4</v>
+      </c>
+      <c r="E15">
         <v>-5</v>
       </c>
-      <c r="E15">
-        <v>-1</v>
-      </c>
       <c r="F15">
+        <v>-3</v>
+      </c>
+      <c r="G15">
         <v>-5</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
       <c r="H15">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15">
         <v>5</v>
       </c>
       <c r="N15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>5</v>
       </c>
       <c r="V15"/>
     </row>
@@ -2179,49 +2217,51 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D16">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="E16">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>-5</v>
       </c>
       <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>-5</v>
       </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
       <c r="I16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N16">
+        <v>4</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
         <v>5</v>
       </c>
-      <c r="O16">
-        <v>3</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="V16"/>
+      <c r="V16" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -2231,90 +2271,92 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D17">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E17">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="F17">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17">
         <v>5</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="V17"/>
+        <v>4</v>
+      </c>
+      <c r="V17" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D18">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18">
         <v>5</v>
       </c>
       <c r="N18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -2323,11 +2365,18 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <v>5</v>
-      </c>
-      <c r="V18" t="s">
-        <v>133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -2337,22 +2386,22 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D19">
         <v>-3</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="I19">
         <v>4</v>
@@ -2361,52 +2410,61 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N19">
         <v>5</v>
       </c>
       <c r="O19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q19">
         <v>3</v>
       </c>
       <c r="R19">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>5</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="6">
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>-4</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2415,14 +2473,14 @@
         <v>3</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -2431,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V20"/>
     </row>
@@ -2439,81 +2497,92 @@
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="6">
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D21">
+        <v>-3</v>
+      </c>
+      <c r="E21">
+        <v>-5</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
         <v>4</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>5</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21">
+        <v>4</v>
+      </c>
+      <c r="N21">
         <v>5</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>2</v>
       </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
-      <c r="V21"/>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>3</v>
+      </c>
+      <c r="U21">
+        <v>5</v>
+      </c>
+      <c r="V21" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D22">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F22">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="H22">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="I22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2523,73 +2592,62 @@
       </c>
       <c r="L22" s="2"/>
       <c r="M22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N22">
         <v>5</v>
       </c>
       <c r="O22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R22">
         <v>0</v>
       </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>5</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22" t="s">
-        <v>135</v>
-      </c>
+      <c r="V22"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="6">
+        <v>124</v>
+      </c>
+      <c r="B23" s="5">
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="D23">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="G23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -2598,204 +2656,197 @@
         <v>0</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V23"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="5">
+        <v>20</v>
+      </c>
+      <c r="B24" s="6">
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D24">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F24">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="G24">
+        <v>-2</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
         <v>3</v>
       </c>
-      <c r="H24">
-        <v>-2</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>4</v>
-      </c>
       <c r="K24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N24">
+        <v>5</v>
+      </c>
+      <c r="O24">
         <v>2</v>
       </c>
-      <c r="O24">
-        <v>4</v>
-      </c>
       <c r="Q24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R24">
         <v>0</v>
       </c>
-      <c r="V24"/>
+      <c r="V24" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="6">
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D25">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>2</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>2</v>
       </c>
       <c r="K25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>5</v>
       </c>
-      <c r="O25">
-        <v>2</v>
-      </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25">
         <v>0</v>
       </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>3</v>
-      </c>
-      <c r="U25">
-        <v>5</v>
-      </c>
       <c r="V25" t="s">
-        <v>234</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="5">
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="F26">
+        <v>-2</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>2</v>
       </c>
-      <c r="G26">
-        <v>-5</v>
-      </c>
-      <c r="H26">
-        <v>3</v>
-      </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
         <v>2</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>5</v>
       </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
       <c r="Q26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V26"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>136</v>
-      </c>
-      <c r="B27" s="5">
+        <v>23</v>
+      </c>
+      <c r="B27" s="6">
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="E27">
+        <v>-3</v>
+      </c>
+      <c r="F27">
+        <v>-2</v>
+      </c>
+      <c r="G27">
         <v>3</v>
       </c>
-      <c r="F27">
-        <v>5</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
       <c r="H27">
+        <v>-2</v>
+      </c>
+      <c r="I27">
         <v>3</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2805,19 +2856,19 @@
       </c>
       <c r="L27" s="2"/>
       <c r="M27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N27">
+        <v>4</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>3</v>
       </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
       <c r="R27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V27"/>
     </row>
@@ -2825,39 +2876,39 @@
       <c r="A28" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="6">
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="E28">
+        <v>-3</v>
+      </c>
+      <c r="F28">
         <v>-2</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
       <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>-1</v>
       </c>
-      <c r="H28">
-        <v>3</v>
-      </c>
       <c r="I28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K28">
         <v>2</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N28">
         <v>4</v>
@@ -2866,10 +2917,10 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28"/>
     </row>
@@ -2877,55 +2928,62 @@
       <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D29">
+        <v>-5</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>-4</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>-3</v>
       </c>
-      <c r="E29">
-        <v>-3</v>
-      </c>
-      <c r="F29">
+      <c r="I29">
         <v>2</v>
       </c>
-      <c r="G29">
-        <v>-2</v>
-      </c>
-      <c r="H29">
-        <v>2</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
       <c r="J29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29">
         <v>5</v>
       </c>
       <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
         <v>5</v>
       </c>
-      <c r="O29">
-        <v>2</v>
-      </c>
       <c r="Q29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="V29" t="s">
-        <v>138</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>4</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -2935,50 +2993,59 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30">
         <v>5</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O30">
+        <v>3</v>
+      </c>
+      <c r="Q30">
+        <v>4</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
         <v>5</v>
       </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>3</v>
       </c>
       <c r="V30" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
@@ -2989,47 +3056,47 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="F31">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O31">
+        <v>4</v>
+      </c>
+      <c r="Q31">
         <v>5</v>
       </c>
-      <c r="Q31">
-        <v>4</v>
-      </c>
       <c r="R31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V31"/>
     </row>
@@ -3041,49 +3108,60 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D32">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="E32">
         <v>-3</v>
       </c>
       <c r="F32">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G32">
+        <v>-3</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
         <v>3</v>
-      </c>
-      <c r="H32">
-        <v>-2</v>
-      </c>
-      <c r="I32">
-        <v>3</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
       </c>
       <c r="K32">
         <v>2</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N32">
         <v>4</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>3</v>
-      </c>
-      <c r="V32"/>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -3093,16 +3171,16 @@
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="D33">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="E33">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3111,75 +3189,75 @@
         <v>-1</v>
       </c>
       <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
         <v>4</v>
       </c>
-      <c r="J33">
-        <v>5</v>
-      </c>
       <c r="K33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N33">
         <v>4</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V33"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="B34" s="5">
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D34">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="E34">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="F34">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
         <v>2</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N34">
         <v>5</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -3187,235 +3265,237 @@
       <c r="R34">
         <v>0</v>
       </c>
-      <c r="V34" t="s">
-        <v>155</v>
-      </c>
+      <c r="V34"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="5">
+        <v>65</v>
+      </c>
+      <c r="B35" s="6">
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D35">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F35">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H35">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J35">
         <v>4</v>
       </c>
       <c r="K35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>5</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <v>4</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35"/>
+        <v>0</v>
+      </c>
+      <c r="V35" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="B36" s="6">
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D36">
         <v>-5</v>
       </c>
       <c r="E36">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36">
+        <v>4</v>
+      </c>
+      <c r="N36">
+        <v>3</v>
+      </c>
+      <c r="O36">
         <v>5</v>
       </c>
-      <c r="N36">
-        <v>4</v>
-      </c>
-      <c r="O36">
-        <v>3</v>
-      </c>
       <c r="Q36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S36">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T36">
         <v>0</v>
       </c>
       <c r="U36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V36" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="B37" s="5">
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D37">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="E37">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="I37">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O37">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>5</v>
-      </c>
-      <c r="V37"/>
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="6">
+        <v>80</v>
+      </c>
+      <c r="B38" s="5">
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="E38">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G38">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="H38">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38">
+        <v>4</v>
+      </c>
+      <c r="N38">
         <v>5</v>
       </c>
-      <c r="N38">
-        <v>4</v>
-      </c>
       <c r="O38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -3424,85 +3504,83 @@
         <v>0</v>
       </c>
       <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38" t="s">
-        <v>266</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="V38"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="6">
+        <v>84</v>
+      </c>
+      <c r="B39" s="5">
         <v>38</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>40</v>
+      <c r="C39" t="s">
+        <v>86</v>
       </c>
       <c r="D39">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F39">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H39">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39">
+        <v>4</v>
+      </c>
+      <c r="N39">
         <v>5</v>
       </c>
-      <c r="N39">
-        <v>4</v>
-      </c>
       <c r="O39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V39"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B40" s="5">
         <v>39</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>78</v>
+      <c r="C40" t="s">
+        <v>87</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E40">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H40">
         <v>4</v>
@@ -3518,13 +3596,13 @@
       </c>
       <c r="L40" s="2"/>
       <c r="M40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N40">
         <v>5</v>
       </c>
       <c r="O40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -3536,34 +3614,34 @@
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" s="6">
+        <v>88</v>
+      </c>
+      <c r="B41" s="5">
         <v>40</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>79</v>
+      <c r="C41" t="s">
+        <v>89</v>
       </c>
       <c r="D41">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E41">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -3573,7 +3651,7 @@
         <v>4</v>
       </c>
       <c r="N41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O41">
         <v>0</v>
@@ -3584,97 +3662,84 @@
       <c r="R41">
         <v>0</v>
       </c>
-      <c r="V41" t="s">
-        <v>141</v>
-      </c>
+      <c r="V41"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" s="6">
+        <v>90</v>
+      </c>
+      <c r="B42" s="5">
         <v>41</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>82</v>
+      <c r="C42" t="s">
+        <v>91</v>
       </c>
       <c r="D42">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F42">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="H42">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K42">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L42" s="2"/>
       <c r="M42">
         <v>4</v>
       </c>
       <c r="N42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O42">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R42">
-        <v>5</v>
-      </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
-        <v>0</v>
-      </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
-      <c r="V42" t="s">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V42"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B43" s="5">
         <v>42</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>93</v>
+      <c r="C43" t="s">
+        <v>96</v>
       </c>
       <c r="D43">
         <v>3</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -3683,107 +3748,98 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43">
+        <v>2</v>
+      </c>
+      <c r="N43">
+        <v>3</v>
+      </c>
+      <c r="O43">
         <v>5</v>
       </c>
-      <c r="N43">
-        <v>4</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
       <c r="Q43">
         <v>0</v>
       </c>
       <c r="R43">
         <v>0</v>
       </c>
-      <c r="V43" t="s">
-        <v>154</v>
-      </c>
+      <c r="V43"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B44" s="5">
         <v>43</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>94</v>
+      <c r="C44" t="s">
+        <v>95</v>
       </c>
       <c r="D44">
+        <v>-4</v>
+      </c>
+      <c r="E44">
         <v>-3</v>
       </c>
-      <c r="E44">
-        <v>-5</v>
-      </c>
       <c r="F44">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="G44">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K44">
         <v>1</v>
       </c>
       <c r="L44" s="2"/>
       <c r="M44">
+        <v>5</v>
+      </c>
+      <c r="N44">
         <v>4</v>
       </c>
-      <c r="N44">
-        <v>5</v>
-      </c>
       <c r="O44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>3</v>
-      </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
-      <c r="U44">
-        <v>5</v>
-      </c>
-      <c r="V44"/>
+        <v>2</v>
+      </c>
+      <c r="V44" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>195</v>
       </c>
       <c r="B45" s="5">
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
         <v>2</v>
-      </c>
-      <c r="F45">
-        <v>5</v>
       </c>
       <c r="G45">
         <v>5</v>
@@ -3798,17 +3854,17 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
         <v>4</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>5</v>
-      </c>
-      <c r="O45">
-        <v>3</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -3820,41 +3876,41 @@
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B46" s="5">
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D46">
+        <v>-2</v>
+      </c>
+      <c r="E46">
+        <v>-4</v>
+      </c>
+      <c r="F46">
+        <v>-3</v>
+      </c>
+      <c r="G46">
+        <v>-2</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
         <v>3</v>
       </c>
-      <c r="E46">
+      <c r="K46">
         <v>3</v>
-      </c>
-      <c r="F46">
-        <v>4</v>
-      </c>
-      <c r="G46">
-        <v>5</v>
-      </c>
-      <c r="H46">
-        <v>4</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>2</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N46">
         <v>5</v>
@@ -3868,29 +3924,40 @@
       <c r="R46">
         <v>0</v>
       </c>
-      <c r="V46"/>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>4</v>
+      </c>
+      <c r="U46">
+        <v>3</v>
+      </c>
+      <c r="V46" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B47" s="5">
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H47">
         <v>5</v>
@@ -3902,17 +3969,17 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47">
         <v>4</v>
       </c>
       <c r="N47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -3924,28 +3991,28 @@
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="6">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
         <v>102</v>
       </c>
-      <c r="B48" s="5">
-        <v>47</v>
-      </c>
-      <c r="C48" t="s">
-        <v>103</v>
-      </c>
       <c r="D48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -3954,175 +4021,183 @@
         <v>2</v>
       </c>
       <c r="K48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L48" s="2"/>
       <c r="M48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N48">
+        <v>2</v>
+      </c>
+      <c r="O48">
         <v>5</v>
       </c>
-      <c r="O48">
-        <v>2</v>
-      </c>
       <c r="Q48">
         <v>0</v>
       </c>
       <c r="R48">
         <v>0</v>
       </c>
-      <c r="V48"/>
+      <c r="V48" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>104</v>
-      </c>
-      <c r="B49" s="5">
+        <v>103</v>
+      </c>
+      <c r="B49" s="6">
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="D49">
+        <v>-5</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>-5</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>-3</v>
+      </c>
+      <c r="I49">
         <v>3</v>
       </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>3</v>
-      </c>
-      <c r="G49">
-        <v>5</v>
-      </c>
-      <c r="H49">
-        <v>3</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
       <c r="J49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O49">
+        <v>4</v>
+      </c>
+      <c r="Q49">
         <v>5</v>
       </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
       <c r="R49">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>5</v>
       </c>
       <c r="V49"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>105</v>
-      </c>
-      <c r="B50" s="5">
+        <v>104</v>
+      </c>
+      <c r="B50" s="6">
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="D50">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="E50">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K50">
         <v>1</v>
       </c>
       <c r="L50" s="2"/>
       <c r="M50">
+        <v>3</v>
+      </c>
+      <c r="N50">
         <v>5</v>
       </c>
-      <c r="N50">
-        <v>4</v>
-      </c>
       <c r="O50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q50">
         <v>0</v>
       </c>
       <c r="R50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V50" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="B51" s="5">
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F51">
+        <v>-2</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
         <v>2</v>
-      </c>
-      <c r="G51">
-        <v>5</v>
-      </c>
-      <c r="H51">
-        <v>5</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>4</v>
       </c>
       <c r="L51" s="2"/>
       <c r="M51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -4130,89 +4205,91 @@
       <c r="R51">
         <v>0</v>
       </c>
-      <c r="V51"/>
+      <c r="V51" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>109</v>
-      </c>
-      <c r="B52" s="5">
+        <v>106</v>
+      </c>
+      <c r="B52" s="6">
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D52">
+        <v>-4</v>
+      </c>
+      <c r="E52">
+        <v>-3</v>
+      </c>
+      <c r="F52">
+        <v>-4</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
         <v>-2</v>
       </c>
-      <c r="E52">
-        <v>-4</v>
-      </c>
-      <c r="F52">
-        <v>-3</v>
-      </c>
-      <c r="G52">
-        <v>-2</v>
-      </c>
-      <c r="H52">
+      <c r="I52">
         <v>2</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
       <c r="J52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K52">
         <v>3</v>
       </c>
       <c r="L52" s="2"/>
       <c r="M52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N52">
         <v>5</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S52">
         <v>0</v>
       </c>
       <c r="T52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V52" t="s">
-        <v>144</v>
+        <v>222</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B53" s="5">
         <v>52</v>
       </c>
-      <c r="C53" t="s">
-        <v>112</v>
+      <c r="C53" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="D53">
         <v>3</v>
       </c>
       <c r="E53">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G53">
         <v>5</v>
@@ -4224,20 +4301,20 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L53" s="2"/>
       <c r="M53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -4249,47 +4326,47 @@
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B54" s="6">
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="G54">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
         <v>4</v>
       </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
       <c r="J54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L54" s="2"/>
       <c r="M54">
         <v>3</v>
       </c>
       <c r="N54">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -4298,104 +4375,98 @@
         <v>0</v>
       </c>
       <c r="V54" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>115</v>
-      </c>
-      <c r="B55" s="6">
+        <v>140</v>
+      </c>
+      <c r="B55" s="5">
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D55">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="F55">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
         <v>2</v>
-      </c>
-      <c r="K55">
-        <v>4</v>
       </c>
       <c r="L55" s="2"/>
       <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
         <v>5</v>
       </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
       <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>3</v>
+      </c>
+      <c r="R55">
         <v>4</v>
-      </c>
-      <c r="Q55">
-        <v>5</v>
-      </c>
-      <c r="R55">
-        <v>5</v>
-      </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
-      <c r="T55">
-        <v>5</v>
       </c>
       <c r="V55"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>116</v>
-      </c>
-      <c r="B56" s="6">
+        <v>144</v>
+      </c>
+      <c r="B56" s="5">
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D56">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="H56">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N56">
         <v>5</v>
@@ -4404,39 +4475,37 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R56">
         <v>0</v>
       </c>
-      <c r="V56" t="s">
-        <v>148</v>
-      </c>
+      <c r="V56"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="B57" s="5">
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D57">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E57">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -4445,11 +4514,11 @@
         <v>0</v>
       </c>
       <c r="K57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L57" s="2"/>
       <c r="M57">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N57">
         <v>5</v>
@@ -4463,85 +4532,92 @@
       <c r="R57">
         <v>0</v>
       </c>
-      <c r="V57" t="s">
-        <v>150</v>
-      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>3</v>
+      </c>
+      <c r="U57">
+        <v>3</v>
+      </c>
+      <c r="V57"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="B58" s="6">
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="D58">
+        <v>-5</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>-5</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
         <v>-4</v>
       </c>
-      <c r="E58">
-        <v>-3</v>
-      </c>
-      <c r="F58">
-        <v>-4</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>-2</v>
-      </c>
       <c r="I58">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="K58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L58" s="2"/>
       <c r="M58">
         <v>5</v>
       </c>
       <c r="N58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>2</v>
+      </c>
+      <c r="S58">
+        <v>2</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
         <v>4</v>
       </c>
-      <c r="Q58">
-        <v>5</v>
-      </c>
-      <c r="R58">
-        <v>5</v>
-      </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
-      <c r="T58">
-        <v>5</v>
-      </c>
-      <c r="U58">
-        <v>0</v>
-      </c>
       <c r="V58" t="s">
-        <v>235</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>120</v>
-      </c>
-      <c r="B59" s="5">
+        <v>150</v>
+      </c>
+      <c r="B59" s="6">
         <v>58</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>121</v>
+      <c r="C59" t="s">
+        <v>151</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -4550,10 +4626,10 @@
         <v>3</v>
       </c>
       <c r="G59">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -4562,11 +4638,11 @@
         <v>3</v>
       </c>
       <c r="K59">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L59" s="2"/>
       <c r="M59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N59">
         <v>5</v>
@@ -4580,20 +4656,31 @@
       <c r="R59">
         <v>0</v>
       </c>
-      <c r="V59"/>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>3</v>
+      </c>
+      <c r="U59">
+        <v>5</v>
+      </c>
+      <c r="V59" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>122</v>
-      </c>
-      <c r="B60" s="6">
+        <v>153</v>
+      </c>
+      <c r="B60" s="5">
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="D60">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -4602,77 +4689,75 @@
         <v>-3</v>
       </c>
       <c r="G60">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
         <v>2</v>
-      </c>
-      <c r="I60">
-        <v>4</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>4</v>
       </c>
       <c r="L60" s="2"/>
       <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60">
+        <v>5</v>
+      </c>
+      <c r="Q60">
         <v>3</v>
       </c>
-      <c r="N60">
-        <v>5</v>
-      </c>
-      <c r="O60">
-        <v>4</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
       <c r="R60">
-        <v>0</v>
-      </c>
-      <c r="V60" t="s">
-        <v>151</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="V60"/>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B61" s="5">
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D61">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="E61">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="F61">
+        <v>-2</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
         <v>-3</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>-4</v>
       </c>
       <c r="I61">
         <v>4</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L61" s="2"/>
       <c r="M61">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N61">
         <v>5</v>
@@ -4681,105 +4766,116 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>4</v>
-      </c>
-      <c r="V61"/>
+        <v>0</v>
+      </c>
+      <c r="V61" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>157</v>
-      </c>
-      <c r="B62" s="5">
+        <v>158</v>
+      </c>
+      <c r="B62" s="6">
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D62">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>-4</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
         <v>-5</v>
       </c>
-      <c r="F62">
-        <v>-3</v>
-      </c>
-      <c r="G62">
-        <v>-5</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
       <c r="I62">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K62">
         <v>2</v>
       </c>
       <c r="L62" s="2"/>
       <c r="M62">
+        <v>5</v>
+      </c>
+      <c r="N62">
         <v>4</v>
       </c>
-      <c r="N62">
+      <c r="O62">
+        <v>3</v>
+      </c>
+      <c r="Q62">
         <v>5</v>
       </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>2</v>
-      </c>
       <c r="R62">
+        <v>5</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>5</v>
+      </c>
+      <c r="U62">
         <v>0</v>
       </c>
       <c r="V62"/>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B63" s="5">
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D63">
+        <v>-1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>-1</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>-3</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>3</v>
+      </c>
+      <c r="K63">
         <v>2</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>3</v>
-      </c>
-      <c r="G63">
-        <v>3</v>
-      </c>
-      <c r="H63">
-        <v>5</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>3</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N63">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O63">
         <v>3</v>
@@ -4794,54 +4890,56 @@
         <v>0</v>
       </c>
       <c r="T63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U63">
-        <v>3</v>
-      </c>
-      <c r="V63"/>
+        <v>0</v>
+      </c>
+      <c r="V63" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B64" s="6">
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D64">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F64">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="I64">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="K64">
         <v>1</v>
       </c>
       <c r="L64" s="2"/>
       <c r="M64">
+        <v>3</v>
+      </c>
+      <c r="N64">
         <v>5</v>
       </c>
-      <c r="N64">
-        <v>3</v>
-      </c>
       <c r="O64">
         <v>0</v>
       </c>
@@ -4849,55 +4947,64 @@
         <v>0</v>
       </c>
       <c r="R64">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
       </c>
       <c r="V64" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>163</v>
-      </c>
-      <c r="B65" s="6">
+        <v>166</v>
+      </c>
+      <c r="B65" s="5">
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D65">
         <v>5</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K65">
         <v>1</v>
       </c>
       <c r="L65" s="2"/>
       <c r="M65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N65">
         <v>5</v>
       </c>
       <c r="O65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q65">
         <v>0</v>
@@ -4905,43 +5012,34 @@
       <c r="R65">
         <v>0</v>
       </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
-      <c r="T65">
-        <v>3</v>
-      </c>
-      <c r="U65">
-        <v>5</v>
-      </c>
       <c r="V65" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B66" s="5">
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D66">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -4954,65 +5052,65 @@
       </c>
       <c r="L66" s="2"/>
       <c r="M66">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N66">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q66">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R66">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V66"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B67" s="5">
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D67">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F67">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="I67">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L67" s="2"/>
       <c r="M67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N67">
         <v>5</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q67">
         <v>0</v>
@@ -5020,111 +5118,102 @@
       <c r="R67">
         <v>0</v>
       </c>
-      <c r="V67" t="s">
-        <v>169</v>
-      </c>
+      <c r="V67"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>171</v>
-      </c>
-      <c r="B68" s="6">
+        <v>173</v>
+      </c>
+      <c r="B68" s="5">
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D68">
+        <v>-3</v>
+      </c>
+      <c r="E68">
+        <v>-2</v>
+      </c>
+      <c r="F68">
+        <v>-2</v>
+      </c>
+      <c r="G68">
         <v>-5</v>
       </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>-4</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
       <c r="H68">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="I68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L68" s="2"/>
       <c r="M68">
+        <v>2</v>
+      </c>
+      <c r="N68">
         <v>5</v>
       </c>
-      <c r="N68">
-        <v>4</v>
-      </c>
       <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
         <v>3</v>
       </c>
-      <c r="Q68">
-        <v>5</v>
-      </c>
-      <c r="R68">
-        <v>5</v>
-      </c>
-      <c r="S68">
-        <v>0</v>
-      </c>
-      <c r="T68">
-        <v>5</v>
-      </c>
-      <c r="U68">
-        <v>0</v>
-      </c>
-      <c r="V68"/>
+      <c r="V68" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B69" s="5">
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D69">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="F69">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K69">
         <v>2</v>
       </c>
       <c r="L69" s="2"/>
       <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
         <v>5</v>
-      </c>
-      <c r="N69">
-        <v>2</v>
       </c>
       <c r="O69">
         <v>3</v>
@@ -5135,56 +5224,45 @@
       <c r="R69">
         <v>0</v>
       </c>
-      <c r="S69">
-        <v>0</v>
-      </c>
-      <c r="T69">
-        <v>0</v>
-      </c>
-      <c r="U69">
-        <v>0</v>
-      </c>
-      <c r="V69" t="s">
-        <v>175</v>
-      </c>
+      <c r="V69"/>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B70" s="6">
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D70">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
         <v>-3</v>
       </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
       <c r="G70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H70">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L70" s="2"/>
       <c r="M70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N70">
         <v>5</v>
@@ -5198,62 +5276,53 @@
       <c r="R70">
         <v>0</v>
       </c>
-      <c r="S70">
-        <v>0</v>
-      </c>
-      <c r="T70">
-        <v>0</v>
-      </c>
-      <c r="U70">
-        <v>0</v>
-      </c>
       <c r="V70" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B71" s="5">
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D71">
         <v>5</v>
       </c>
       <c r="E71">
+        <v>5</v>
+      </c>
+      <c r="F71">
         <v>3</v>
       </c>
-      <c r="F71">
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
         <v>2</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>5</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>1</v>
       </c>
       <c r="L71" s="2"/>
       <c r="M71">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N71">
         <v>5</v>
       </c>
       <c r="O71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
         <v>0</v>
@@ -5262,30 +5331,30 @@
         <v>0</v>
       </c>
       <c r="V71" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B72" s="5">
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D72">
         <v>5</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G72">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -5294,75 +5363,77 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L72" s="2"/>
       <c r="M72">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N72">
+        <v>3</v>
+      </c>
+      <c r="O72">
         <v>5</v>
       </c>
-      <c r="O72">
-        <v>3</v>
-      </c>
       <c r="Q72">
         <v>0</v>
       </c>
       <c r="R72">
         <v>0</v>
       </c>
-      <c r="V72"/>
+      <c r="V72" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B73" s="5">
         <v>72</v>
       </c>
-      <c r="C73" t="s">
-        <v>185</v>
+      <c r="C73" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="D73">
-        <v>5</v>
+        <v>-4</v>
       </c>
       <c r="E73">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F73">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L73" s="2"/>
       <c r="M73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N73">
         <v>5</v>
       </c>
       <c r="O73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R73">
         <v>0</v>
@@ -5377,79 +5448,79 @@
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="D74">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="E74">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="F74">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="G74">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J74">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K74">
         <v>1</v>
       </c>
       <c r="L74" s="2"/>
       <c r="M74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N74">
         <v>5</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q74">
         <v>0</v>
       </c>
       <c r="R74">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V74" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B75" s="5">
         <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="D75">
         <v>-4</v>
       </c>
       <c r="E75">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="F75">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="H75">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -5459,113 +5530,124 @@
       </c>
       <c r="L75" s="2"/>
       <c r="M75">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N75">
         <v>5</v>
       </c>
       <c r="O75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q75">
         <v>0</v>
       </c>
       <c r="R75">
-        <v>0</v>
-      </c>
-      <c r="V75"/>
+        <v>5</v>
+      </c>
+      <c r="V75" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B76" s="6">
         <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="D76">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="G76">
         <v>3</v>
       </c>
       <c r="H76">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
         <v>5</v>
-      </c>
-      <c r="J76">
-        <v>5</v>
-      </c>
-      <c r="K76">
-        <v>2</v>
       </c>
       <c r="L76" s="2"/>
       <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
         <v>4</v>
       </c>
-      <c r="N76">
+      <c r="O76">
         <v>5</v>
       </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
       <c r="Q76">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R76">
+        <v>2</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>5</v>
+      </c>
+      <c r="U76">
         <v>0</v>
       </c>
       <c r="V76" t="s">
-        <v>193</v>
+        <v>256</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>194</v>
-      </c>
-      <c r="B77" s="5">
+        <v>192</v>
+      </c>
+      <c r="B77" s="6">
         <v>76</v>
       </c>
-      <c r="C77" t="s">
-        <v>195</v>
+      <c r="C77" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="D77">
+        <v>-4</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>-4</v>
+      </c>
+      <c r="I77">
         <v>5</v>
       </c>
-      <c r="E77">
+      <c r="J77">
+        <v>4</v>
+      </c>
+      <c r="K77">
         <v>5</v>
-      </c>
-      <c r="F77">
-        <v>3</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <v>2</v>
       </c>
       <c r="L77" s="2"/>
       <c r="M77">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N77">
         <v>5</v>
@@ -5579,31 +5661,40 @@
       <c r="R77">
         <v>0</v>
       </c>
+      <c r="S77">
+        <v>4</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>1</v>
+      </c>
       <c r="V77" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B78" s="5">
         <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D78">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E78">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="F78">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -5612,20 +5703,20 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L78" s="2"/>
       <c r="M78">
         <v>0</v>
       </c>
       <c r="N78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O78">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q78">
         <v>0</v>
@@ -5633,119 +5724,144 @@
       <c r="R78">
         <v>0</v>
       </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>2</v>
+      </c>
       <c r="V78" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B79" s="5">
         <v>78</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>204</v>
+      <c r="C79" t="s">
+        <v>210</v>
       </c>
       <c r="D79">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="E79">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="K79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L79" s="2"/>
       <c r="M79">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N79">
         <v>5</v>
       </c>
       <c r="O79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
         <v>0</v>
       </c>
       <c r="V79"/>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>199</v>
-      </c>
-      <c r="B80" s="5">
+        <v>196</v>
+      </c>
+      <c r="B80" s="6">
         <v>79</v>
       </c>
       <c r="C80" t="s">
         <v>211</v>
       </c>
       <c r="D80">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="E80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>5</v>
+        <v>-4</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
         <v>3</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <v>1</v>
       </c>
       <c r="L80" s="2"/>
       <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>2</v>
+      </c>
+      <c r="O80">
+        <v>5</v>
+      </c>
+      <c r="Q80">
         <v>3</v>
       </c>
-      <c r="N80">
-        <v>5</v>
-      </c>
-      <c r="O80">
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
         <v>3</v>
       </c>
-      <c r="Q80">
-        <v>0</v>
-      </c>
-      <c r="R80">
-        <v>0</v>
-      </c>
-      <c r="V80" t="s">
-        <v>212</v>
-      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80"/>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B81" s="5">
         <v>80</v>
@@ -5754,16 +5870,16 @@
         <v>213</v>
       </c>
       <c r="D81">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="E81">
         <v>-5</v>
       </c>
       <c r="F81">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="G81">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -5779,7 +5895,7 @@
       </c>
       <c r="L81" s="2"/>
       <c r="M81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N81">
         <v>5</v>
@@ -5791,7 +5907,16 @@
         <v>0</v>
       </c>
       <c r="R81">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>4</v>
       </c>
       <c r="V81" t="s">
         <v>214</v>
@@ -5799,28 +5924,28 @@
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>201</v>
-      </c>
-      <c r="B82" s="6">
+        <v>205</v>
+      </c>
+      <c r="B82" s="5">
         <v>81</v>
       </c>
       <c r="C82" t="s">
         <v>215</v>
       </c>
       <c r="D82">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F82">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="G82">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="H82">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -5829,44 +5954,55 @@
         <v>0</v>
       </c>
       <c r="K82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L82" s="2"/>
       <c r="M82">
         <v>0</v>
       </c>
       <c r="N82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O82">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R82">
-        <v>2</v>
-      </c>
-      <c r="V82"/>
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>205</v>
-      </c>
-      <c r="B83" s="6">
+        <v>217</v>
+      </c>
+      <c r="B83" s="5">
         <v>82</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>216</v>
+      <c r="C83" t="s">
+        <v>218</v>
       </c>
       <c r="D83">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -5875,17 +6011,17 @@
         <v>-4</v>
       </c>
       <c r="I83">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L83" s="2"/>
       <c r="M83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N83">
         <v>5</v>
@@ -5897,99 +6033,117 @@
         <v>0</v>
       </c>
       <c r="R83">
+        <v>4</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>3</v>
+      </c>
+      <c r="U83">
         <v>0</v>
       </c>
       <c r="V83" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="B84" s="5">
         <v>83</v>
       </c>
       <c r="C84" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E84">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="H84">
+        <v>-2</v>
+      </c>
+      <c r="I84">
+        <v>3</v>
+      </c>
+      <c r="J84">
+        <v>5</v>
+      </c>
+      <c r="K84">
         <v>2</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84">
-        <v>4</v>
       </c>
       <c r="L84" s="2"/>
       <c r="M84">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N84">
+        <v>3</v>
+      </c>
+      <c r="O84">
+        <v>3</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>3</v>
+      </c>
+      <c r="S84">
         <v>5</v>
       </c>
-      <c r="O84">
-        <v>0</v>
-      </c>
-      <c r="Q84">
-        <v>0</v>
-      </c>
-      <c r="R84">
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
         <v>0</v>
       </c>
       <c r="V84" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="B85" s="5">
         <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D85">
+        <v>-5</v>
+      </c>
+      <c r="E85">
+        <v>-5</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>-3</v>
+      </c>
+      <c r="H85">
+        <v>-3</v>
+      </c>
+      <c r="I85">
         <v>5</v>
       </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>3</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
+      <c r="J85">
         <v>4</v>
       </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
       <c r="K85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L85" s="2"/>
       <c r="M85">
@@ -6005,168 +6159,170 @@
         <v>0</v>
       </c>
       <c r="R85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S85">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T85">
         <v>0</v>
       </c>
       <c r="U85">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V85"/>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>209</v>
-      </c>
-      <c r="B86" s="6">
+        <v>225</v>
+      </c>
+      <c r="B86" s="5">
         <v>85</v>
       </c>
       <c r="C86" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D86">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>-2</v>
+      </c>
+      <c r="H86">
         <v>-4</v>
       </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
       <c r="I86">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L86" s="2"/>
       <c r="M86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N86">
+        <v>3</v>
+      </c>
+      <c r="O86">
+        <v>3</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>4</v>
+      </c>
+      <c r="S86">
         <v>2</v>
       </c>
-      <c r="O86">
-        <v>5</v>
-      </c>
-      <c r="Q86">
-        <v>3</v>
-      </c>
-      <c r="R86">
-        <v>0</v>
-      </c>
-      <c r="S86">
-        <v>0</v>
-      </c>
       <c r="T86">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U86">
         <v>0</v>
       </c>
-      <c r="V86"/>
+      <c r="V86" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="B87" s="5">
         <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D87">
         <v>-5</v>
       </c>
       <c r="E87">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F87">
         <v>-4</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L87" s="2"/>
       <c r="M87">
         <v>0</v>
       </c>
       <c r="N87">
+        <v>3</v>
+      </c>
+      <c r="O87">
         <v>5</v>
       </c>
-      <c r="O87">
-        <v>0</v>
-      </c>
       <c r="Q87">
         <v>0</v>
       </c>
       <c r="R87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U87">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V87" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="B88" s="5">
         <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="D88">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E88">
+        <v>3</v>
+      </c>
+      <c r="F88">
+        <v>-1</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
         <v>4</v>
       </c>
-      <c r="F88">
-        <v>5</v>
-      </c>
-      <c r="G88">
-        <v>-2</v>
-      </c>
-      <c r="H88">
-        <v>5</v>
-      </c>
       <c r="I88">
         <v>0</v>
       </c>
@@ -6174,18 +6330,18 @@
         <v>0</v>
       </c>
       <c r="K88">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L88" s="2"/>
       <c r="M88">
         <v>0</v>
       </c>
       <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
         <v>5</v>
       </c>
-      <c r="O88">
-        <v>0</v>
-      </c>
       <c r="Q88">
         <v>0</v>
       </c>
@@ -6201,34 +6357,32 @@
       <c r="U88">
         <v>0</v>
       </c>
-      <c r="V88" t="s">
-        <v>229</v>
-      </c>
+      <c r="V88"/>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="B89" s="5">
         <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D89">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="F89">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H89">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -6247,30 +6401,30 @@
         <v>5</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
         <v>4</v>
       </c>
-      <c r="S89">
-        <v>0</v>
-      </c>
-      <c r="T89">
-        <v>3</v>
-      </c>
       <c r="U89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V89" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B90" s="5">
         <v>89</v>
@@ -6279,53 +6433,53 @@
         <v>241</v>
       </c>
       <c r="D90">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H90">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J90">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K90">
         <v>2</v>
       </c>
       <c r="L90" s="2"/>
       <c r="M90">
+        <v>4</v>
+      </c>
+      <c r="N90">
         <v>5</v>
       </c>
-      <c r="N90">
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90">
         <v>3</v>
       </c>
-      <c r="O90">
-        <v>3</v>
-      </c>
-      <c r="Q90">
-        <v>0</v>
-      </c>
-      <c r="R90">
-        <v>3</v>
-      </c>
-      <c r="S90">
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
         <v>5</v>
-      </c>
-      <c r="T90">
-        <v>0</v>
-      </c>
-      <c r="U90">
-        <v>0</v>
       </c>
       <c r="V90" t="s">
         <v>242</v>
@@ -6333,120 +6487,122 @@
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B91" s="5">
         <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D91">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E91">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G91">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="H91">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
         <v>5</v>
-      </c>
-      <c r="J91">
-        <v>4</v>
-      </c>
-      <c r="K91">
-        <v>1</v>
       </c>
       <c r="L91" s="2"/>
       <c r="M91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
         <v>5</v>
       </c>
-      <c r="O91">
-        <v>0</v>
-      </c>
       <c r="Q91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S91">
+        <v>3</v>
+      </c>
+      <c r="T91">
         <v>4</v>
       </c>
-      <c r="T91">
-        <v>0</v>
-      </c>
       <c r="U91">
-        <v>4</v>
-      </c>
-      <c r="V91"/>
+        <v>3</v>
+      </c>
+      <c r="V91" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>238</v>
-      </c>
-      <c r="B92" s="5">
+        <v>247</v>
+      </c>
+      <c r="B92" s="6">
         <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D92">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F92">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="H92">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
         <v>2</v>
-      </c>
-      <c r="J92">
-        <v>3</v>
-      </c>
-      <c r="K92">
-        <v>3</v>
       </c>
       <c r="L92" s="2"/>
       <c r="M92">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N92">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O92">
         <v>3</v>
       </c>
       <c r="Q92">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R92">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S92">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T92">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U92">
         <v>5</v>
@@ -6455,107 +6611,107 @@
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="B93" s="5">
         <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D93">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="G93">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H93">
         <v>-4</v>
       </c>
       <c r="I93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J93">
         <v>5</v>
       </c>
       <c r="K93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L93" s="2"/>
       <c r="M93">
+        <v>5</v>
+      </c>
+      <c r="N93">
+        <v>5</v>
+      </c>
+      <c r="O93">
+        <v>5</v>
+      </c>
+      <c r="Q93">
+        <v>5</v>
+      </c>
+      <c r="R93">
+        <v>5</v>
+      </c>
+      <c r="S93">
         <v>3</v>
       </c>
-      <c r="N93">
+      <c r="T93">
+        <v>5</v>
+      </c>
+      <c r="U93">
         <v>3</v>
       </c>
-      <c r="O93">
-        <v>3</v>
-      </c>
-      <c r="Q93">
-        <v>0</v>
-      </c>
-      <c r="R93">
-        <v>4</v>
-      </c>
-      <c r="S93">
-        <v>2</v>
-      </c>
-      <c r="T93">
-        <v>0</v>
-      </c>
-      <c r="U93">
-        <v>0</v>
-      </c>
       <c r="V93" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="B94" s="5">
         <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D94">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="F94">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="G94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="I94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K94">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L94" s="2"/>
       <c r="M94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O94">
         <v>5</v>
@@ -6564,64 +6720,64 @@
         <v>0</v>
       </c>
       <c r="R94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U94">
         <v>0</v>
       </c>
       <c r="V94" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B95" s="5">
         <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="D95">
+        <v>5</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+      <c r="F95">
         <v>3</v>
       </c>
-      <c r="E95">
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>2</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
         <v>3</v>
-      </c>
-      <c r="F95">
-        <v>-1</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>4</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
-      <c r="K95">
-        <v>4</v>
       </c>
       <c r="L95" s="2"/>
       <c r="M95">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O95">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q95">
         <v>0</v>
@@ -6642,91 +6798,89 @@
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B96" s="5">
         <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D96">
         <v>-4</v>
       </c>
       <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>-3</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
         <v>-4</v>
       </c>
-      <c r="F96">
-        <v>-4</v>
-      </c>
-      <c r="G96">
-        <v>3</v>
-      </c>
-      <c r="H96">
-        <v>1</v>
-      </c>
       <c r="I96">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J96">
         <v>0</v>
       </c>
       <c r="K96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L96" s="2"/>
       <c r="M96">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N96">
+        <v>4</v>
+      </c>
+      <c r="O96">
         <v>5</v>
-      </c>
-      <c r="O96">
-        <v>3</v>
       </c>
       <c r="Q96">
         <v>2</v>
       </c>
       <c r="R96">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S96">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T96">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U96">
-        <v>2</v>
-      </c>
-      <c r="V96" t="s">
-        <v>254</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V96"/>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B97" s="5">
         <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="D97">
         <v>-3</v>
       </c>
       <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
         <v>-3</v>
       </c>
-      <c r="F97">
-        <v>3</v>
-      </c>
       <c r="G97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -6742,178 +6896,178 @@
         <v>4</v>
       </c>
       <c r="N97">
+        <v>2</v>
+      </c>
+      <c r="O97">
+        <v>4</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="S97">
         <v>5</v>
       </c>
-      <c r="O97">
-        <v>0</v>
-      </c>
-      <c r="Q97">
-        <v>0</v>
-      </c>
-      <c r="R97">
-        <v>0</v>
-      </c>
-      <c r="S97">
-        <v>3</v>
-      </c>
       <c r="T97">
         <v>0</v>
       </c>
       <c r="U97">
-        <v>5</v>
-      </c>
-      <c r="V97" t="s">
-        <v>257</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="V97"/>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B98" s="5">
         <v>97</v>
       </c>
-      <c r="C98" t="s">
-        <v>259</v>
+      <c r="C98" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="F98">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K98">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L98" s="2"/>
       <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>5</v>
+      </c>
+      <c r="O98">
         <v>3</v>
       </c>
-      <c r="N98">
-        <v>0</v>
-      </c>
-      <c r="O98">
-        <v>5</v>
-      </c>
       <c r="Q98">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T98">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V98" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B99" s="5">
         <v>98</v>
       </c>
-      <c r="C99" t="s">
-        <v>261</v>
+      <c r="C99" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="D99">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F99">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H99">
+        <v>3</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>5</v>
+      </c>
+      <c r="K99">
         <v>2</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-      <c r="J99">
-        <v>0</v>
-      </c>
-      <c r="K99">
-        <v>4</v>
       </c>
       <c r="L99" s="2"/>
       <c r="M99">
         <v>4</v>
       </c>
       <c r="N99">
+        <v>5</v>
+      </c>
+      <c r="O99">
         <v>2</v>
       </c>
-      <c r="O99">
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
+      </c>
+      <c r="U99">
         <v>5</v>
       </c>
-      <c r="Q99">
-        <v>0</v>
-      </c>
-      <c r="R99">
-        <v>4</v>
-      </c>
-      <c r="S99">
-        <v>5</v>
-      </c>
-      <c r="T99">
-        <v>0</v>
-      </c>
-      <c r="U99">
-        <v>0</v>
-      </c>
-      <c r="V99"/>
+      <c r="V99" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>264</v>
-      </c>
-      <c r="B100" s="6">
+        <v>269</v>
+      </c>
+      <c r="B100" s="5">
         <v>99</v>
       </c>
-      <c r="C100" t="s">
-        <v>263</v>
+      <c r="C100" s="1" t="s">
+        <v>270</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E100">
         <v>2</v>
       </c>
       <c r="F100">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G100">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -6926,33 +7080,95 @@
       </c>
       <c r="L100" s="2"/>
       <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>4</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <v>0</v>
+      </c>
+      <c r="S100">
+        <v>0</v>
+      </c>
+      <c r="T100">
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <v>3</v>
+      </c>
+      <c r="V100" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>273</v>
+      </c>
+      <c r="B101" s="5">
+        <v>100</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D101">
         <v>5</v>
       </c>
-      <c r="N100">
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
         <v>2</v>
       </c>
-      <c r="O100">
-        <v>3</v>
-      </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
-      <c r="R100">
-        <v>0</v>
-      </c>
-      <c r="S100">
-        <v>0</v>
-      </c>
-      <c r="T100">
-        <v>0</v>
-      </c>
-      <c r="U100">
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
         <v>5</v>
       </c>
-      <c r="V100"/>
-    </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="V101"/>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101" s="2"/>
+      <c r="M101">
+        <v>5</v>
+      </c>
+      <c r="N101">
+        <v>2</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <v>0</v>
+      </c>
+      <c r="S101">
+        <v>0</v>
+      </c>
+      <c r="T101">
+        <v>0</v>
+      </c>
+      <c r="U101">
+        <v>0</v>
+      </c>
+      <c r="V101" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.3">
       <c r="V102"/>
@@ -38480,89 +38696,57 @@
     </row>
     <row r="10610" spans="22:22" x14ac:dyDescent="0.3">
       <c r="V10610"/>
-    </row>
-    <row r="10611" spans="22:22" x14ac:dyDescent="0.3">
-      <c r="V10611"/>
-    </row>
-    <row r="10612" spans="22:22" x14ac:dyDescent="0.3">
-      <c r="V10612"/>
-    </row>
-    <row r="10613" spans="22:22" x14ac:dyDescent="0.3">
-      <c r="V10613"/>
-    </row>
-    <row r="10614" spans="22:22" x14ac:dyDescent="0.3">
-      <c r="V10614"/>
-    </row>
-    <row r="10615" spans="22:22" x14ac:dyDescent="0.3">
-      <c r="V10615"/>
-    </row>
-    <row r="10616" spans="22:22" x14ac:dyDescent="0.3">
-      <c r="V10616"/>
-    </row>
-    <row r="10617" spans="22:22" x14ac:dyDescent="0.3">
-      <c r="V10617"/>
-    </row>
-    <row r="10618" spans="22:22" x14ac:dyDescent="0.3">
-      <c r="V10618"/>
-    </row>
-    <row r="10619" spans="22:22" x14ac:dyDescent="0.3">
-      <c r="V10619"/>
-    </row>
-    <row r="10620" spans="22:22" x14ac:dyDescent="0.3">
-      <c r="V10620"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C8" r:id="rId4"/>
-    <hyperlink ref="C9" r:id="rId5"/>
-    <hyperlink ref="C10" r:id="rId6"/>
-    <hyperlink ref="C11" r:id="rId7"/>
-    <hyperlink ref="C12" r:id="rId8"/>
-    <hyperlink ref="C13" r:id="rId9"/>
-    <hyperlink ref="C14" r:id="rId10"/>
-    <hyperlink ref="C15" r:id="rId11"/>
-    <hyperlink ref="C16" r:id="rId12"/>
-    <hyperlink ref="C17" r:id="rId13"/>
-    <hyperlink ref="C18" r:id="rId14"/>
-    <hyperlink ref="C19" r:id="rId15"/>
-    <hyperlink ref="C20" r:id="rId16"/>
-    <hyperlink ref="C21" r:id="rId17"/>
-    <hyperlink ref="C22" r:id="rId18"/>
-    <hyperlink ref="C23" r:id="rId19"/>
+    <hyperlink ref="C7" r:id="rId4"/>
+    <hyperlink ref="C8" r:id="rId5"/>
+    <hyperlink ref="C9" r:id="rId6"/>
+    <hyperlink ref="C10" r:id="rId7"/>
+    <hyperlink ref="C11" r:id="rId8"/>
+    <hyperlink ref="C12" r:id="rId9"/>
+    <hyperlink ref="C13" r:id="rId10"/>
+    <hyperlink ref="C14" r:id="rId11"/>
+    <hyperlink ref="C15" r:id="rId12"/>
+    <hyperlink ref="C16" r:id="rId13"/>
+    <hyperlink ref="C17" r:id="rId14"/>
+    <hyperlink ref="C18" r:id="rId15"/>
+    <hyperlink ref="C19" r:id="rId16"/>
+    <hyperlink ref="C20" r:id="rId17"/>
+    <hyperlink ref="C21" r:id="rId18"/>
+    <hyperlink ref="C22" r:id="rId19"/>
     <hyperlink ref="C24" r:id="rId20"/>
     <hyperlink ref="C25" r:id="rId21"/>
     <hyperlink ref="C26" r:id="rId22"/>
-    <hyperlink ref="C28" r:id="rId23"/>
-    <hyperlink ref="C29" r:id="rId24"/>
-    <hyperlink ref="C30" r:id="rId25"/>
-    <hyperlink ref="C31" r:id="rId26"/>
-    <hyperlink ref="C32" r:id="rId27"/>
-    <hyperlink ref="C33" r:id="rId28"/>
-    <hyperlink ref="C34" r:id="rId29"/>
-    <hyperlink ref="C35" r:id="rId30"/>
-    <hyperlink ref="C36" r:id="rId31"/>
-    <hyperlink ref="C37" r:id="rId32"/>
-    <hyperlink ref="C38" r:id="rId33"/>
-    <hyperlink ref="C39" r:id="rId34"/>
-    <hyperlink ref="C5" r:id="rId35"/>
-    <hyperlink ref="C6" r:id="rId36"/>
-    <hyperlink ref="C7" r:id="rId37"/>
-    <hyperlink ref="C40" r:id="rId38"/>
-    <hyperlink ref="C41" r:id="rId39"/>
-    <hyperlink ref="C42" r:id="rId40"/>
-    <hyperlink ref="C43" r:id="rId41"/>
-    <hyperlink ref="C44" r:id="rId42"/>
-    <hyperlink ref="C59" r:id="rId43"/>
-    <hyperlink ref="C79" r:id="rId44"/>
-    <hyperlink ref="C83" r:id="rId45"/>
+    <hyperlink ref="C27" r:id="rId23"/>
+    <hyperlink ref="C28" r:id="rId24"/>
+    <hyperlink ref="C29" r:id="rId25"/>
+    <hyperlink ref="C30" r:id="rId26"/>
+    <hyperlink ref="C31" r:id="rId27"/>
+    <hyperlink ref="C32" r:id="rId28"/>
+    <hyperlink ref="C33" r:id="rId29"/>
+    <hyperlink ref="C5" r:id="rId30"/>
+    <hyperlink ref="C6" r:id="rId31"/>
+    <hyperlink ref="C34" r:id="rId32"/>
+    <hyperlink ref="C35" r:id="rId33"/>
+    <hyperlink ref="C36" r:id="rId34"/>
+    <hyperlink ref="C37" r:id="rId35"/>
+    <hyperlink ref="C38" r:id="rId36"/>
+    <hyperlink ref="C53" r:id="rId37"/>
+    <hyperlink ref="C73" r:id="rId38"/>
+    <hyperlink ref="C77" r:id="rId39"/>
+    <hyperlink ref="C98" r:id="rId40"/>
+    <hyperlink ref="C99" r:id="rId41"/>
+    <hyperlink ref="C100" r:id="rId42"/>
+    <hyperlink ref="C101" r:id="rId43"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId46"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId44"/>
   <tableParts count="1">
-    <tablePart r:id="rId47"/>
+    <tablePart r:id="rId45"/>
   </tableParts>
 </worksheet>
 </file>